--- a/Excel/设置单元格格式_字体_颜色_合并单元格/修改excel表格样式示例.xlsx
+++ b/Excel/设置单元格格式_字体_颜色_合并单元格/修改excel表格样式示例.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_python\python\Excel\设置单元格格式_字体_颜色_合并单元格\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="测试页" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -88,15 +93,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -119,6 +124,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,30 +177,48 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00%"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFD7E2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -210,11 +240,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -256,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,9 +326,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,6 +361,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,75 +537,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="5" width="15.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,22 +615,22 @@
         <v>185</v>
       </c>
       <c r="C4" s="1">
-        <v>34470.24</v>
+        <v>34470.239999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>32639.04</v>
+        <v>32639.040000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.05312408599999999</v>
+        <v>-5.3124085999999987E-2</v>
       </c>
       <c r="F4">
         <v>1311.775097</v>
       </c>
       <c r="G4">
-        <v>1238.685253</v>
+        <v>1238.6852530000001</v>
       </c>
       <c r="H4">
-        <v>-0.05571827400000001</v>
+        <v>-5.5718274000000012E-2</v>
       </c>
       <c r="I4">
         <v>2538</v>
@@ -597,7 +639,7 @@
         <v>31448</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -605,22 +647,22 @@
         <v>353</v>
       </c>
       <c r="C5" s="1">
-        <v>72060.24000000001</v>
+        <v>72060.240000000005</v>
       </c>
       <c r="D5" s="1">
-        <v>70412.16</v>
+        <v>70412.160000000003</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.022870865</v>
+        <v>-2.2870865000000001E-2</v>
       </c>
       <c r="F5">
-        <v>812.2506866</v>
+        <v>812.25068659999999</v>
       </c>
       <c r="G5">
         <v>1447.446533</v>
       </c>
       <c r="H5">
-        <v>0.7820194640000001</v>
+        <v>0.78201946400000011</v>
       </c>
       <c r="I5">
         <v>1439</v>
@@ -629,7 +671,7 @@
         <v>69014</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -637,22 +679,22 @@
         <v>128</v>
       </c>
       <c r="C6" s="1">
-        <v>44452.8</v>
+        <v>44452.800000000003</v>
       </c>
       <c r="D6" s="1">
         <v>42330.96</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.04773242599999999</v>
+        <v>-4.7732425999999988E-2</v>
       </c>
       <c r="F6">
-        <v>250.853405</v>
+        <v>250.85340500000001</v>
       </c>
       <c r="G6">
-        <v>264.5995674</v>
+        <v>264.59956740000001</v>
       </c>
       <c r="H6">
-        <v>0.054797592</v>
+        <v>5.4797591999999999E-2</v>
       </c>
       <c r="I6">
         <v>1203</v>
@@ -661,7 +703,7 @@
         <v>46386</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -669,22 +711,22 @@
         <v>163</v>
       </c>
       <c r="C7" s="1">
-        <v>32492.88</v>
+        <v>32492.880000000001</v>
       </c>
       <c r="D7" s="1">
         <v>31078.32</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.04353446</v>
+        <v>-4.3534459999999997E-2</v>
       </c>
       <c r="F7">
-        <v>494.2728081</v>
+        <v>494.27280810000002</v>
       </c>
       <c r="G7">
-        <v>513.323925</v>
+        <v>513.32392500000003</v>
       </c>
       <c r="H7">
-        <v>0.038543729</v>
+        <v>3.8543728999999999E-2</v>
       </c>
       <c r="I7">
         <v>1257</v>
@@ -693,7 +735,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -707,16 +749,16 @@
         <v>13930.56</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.039165701</v>
+        <v>-3.9165700999999997E-2</v>
       </c>
       <c r="F8">
-        <v>206.0568924</v>
+        <v>206.05689240000001</v>
       </c>
       <c r="G8">
         <v>207.2767868</v>
       </c>
       <c r="H8">
-        <v>0.005920183000000001</v>
+        <v>5.9201830000000007E-3</v>
       </c>
       <c r="I8">
         <v>1941</v>
@@ -725,7 +767,7 @@
         <v>13202</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -739,16 +781,16 @@
         <v>128701.44</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.033849569</v>
+        <v>-3.3849569000000003E-2</v>
       </c>
       <c r="F9">
-        <v>4687.28421</v>
+        <v>4687.2842099999998</v>
       </c>
       <c r="G9">
-        <v>4369.439713000001</v>
+        <v>4369.4397130000007</v>
       </c>
       <c r="H9">
-        <v>-0.06780994799999999</v>
+        <v>-6.7809947999999995E-2</v>
       </c>
       <c r="I9">
         <v>10823</v>
@@ -757,7 +799,7 @@
         <v>145135</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -765,22 +807,22 @@
         <v>152</v>
       </c>
       <c r="C10" s="1">
-        <v>36578.64</v>
+        <v>36578.639999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>35442.96</v>
+        <v>35442.959999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.031047628</v>
+        <v>-3.1047628000000001E-2</v>
       </c>
       <c r="F10">
-        <v>653.5231017999999</v>
+        <v>653.52310179999995</v>
       </c>
       <c r="G10">
-        <v>561.9646912000001</v>
+        <v>561.96469120000006</v>
       </c>
       <c r="H10">
-        <v>-0.140099731</v>
+        <v>-0.14009973100000001</v>
       </c>
       <c r="I10">
         <v>1361</v>
@@ -789,7 +831,7 @@
         <v>31827</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -797,22 +839,22 @@
         <v>352</v>
       </c>
       <c r="C11" s="1">
-        <v>77965.44</v>
+        <v>77965.440000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>74681.03999999999</v>
+        <v>74681.039999999994</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.042126358</v>
+        <v>-4.2126358000000003E-2</v>
       </c>
       <c r="F11">
-        <v>777.5197449</v>
+        <v>777.51974489999998</v>
       </c>
       <c r="G11">
         <v>1197.187214</v>
       </c>
       <c r="H11">
-        <v>0.539751526</v>
+        <v>0.53975152599999998</v>
       </c>
       <c r="I11">
         <v>1364</v>
@@ -821,7 +863,7 @@
         <v>80546</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -829,22 +871,22 @@
         <v>168</v>
       </c>
       <c r="C12" s="1">
-        <v>34515.6</v>
+        <v>34515.599999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>33174.96</v>
+        <v>33174.959999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.038841567</v>
+        <v>-3.8841567E-2</v>
       </c>
       <c r="F12">
-        <v>466.9304466</v>
+        <v>466.93044659999998</v>
       </c>
       <c r="G12">
-        <v>487.556179</v>
+        <v>487.55617899999999</v>
       </c>
       <c r="H12">
-        <v>0.04417303</v>
+        <v>4.4173030000000002E-2</v>
       </c>
       <c r="I12">
         <v>2462</v>
@@ -853,7 +895,7 @@
         <v>36711</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,16 +909,16 @@
         <v>462391.44</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.03717554</v>
+        <v>-3.717554E-2</v>
       </c>
       <c r="F13">
-        <v>9660.466393000001</v>
+        <v>9660.4663930000006</v>
       </c>
       <c r="G13">
-        <v>10287.47986</v>
+        <v>10287.479859999999</v>
       </c>
       <c r="H13">
-        <v>0.064905093</v>
+        <v>6.4905092999999997E-2</v>
       </c>
       <c r="I13">
         <v>24388</v>
@@ -891,8 +933,9 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:J13">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="4">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -902,7 +945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:E13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -912,7 +955,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H13">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
